--- a/data_year/zb/能源/国有经济能源工业分行业固定资产投资.xlsx
+++ b/data_year/zb/能源/国有经济能源工业分行业固定资产投资.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,450 +468,200 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.03</v>
+        <v>335.5082</v>
       </c>
       <c r="C2" t="n">
-        <v>198.9</v>
+        <v>1476.9446</v>
       </c>
       <c r="D2" t="n">
-        <v>2130.3</v>
+        <v>7053.824</v>
       </c>
       <c r="E2" t="n">
-        <v>94.81</v>
+        <v>555.5806</v>
       </c>
       <c r="F2" t="n">
-        <v>355.55</v>
+        <v>1797.597</v>
       </c>
       <c r="G2" t="n">
-        <v>2839.59</v>
+        <v>11219.4544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.39</v>
+        <v>365</v>
       </c>
       <c r="C3" t="n">
-        <v>199.22</v>
+        <v>1635</v>
       </c>
       <c r="D3" t="n">
-        <v>1861.44</v>
+        <v>6806</v>
       </c>
       <c r="E3" t="n">
-        <v>127.36</v>
+        <v>653</v>
       </c>
       <c r="F3" t="n">
-        <v>375.19</v>
+        <v>2009</v>
       </c>
       <c r="G3" t="n">
-        <v>2621.6</v>
+        <v>11468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.09</v>
+        <v>445.9467</v>
       </c>
       <c r="C4" t="n">
-        <v>233.17</v>
+        <v>1783.6513</v>
       </c>
       <c r="D4" t="n">
-        <v>2082.18</v>
+        <v>7670.1299</v>
       </c>
       <c r="E4" t="n">
-        <v>93.16</v>
+        <v>539.9269</v>
       </c>
       <c r="F4" t="n">
-        <v>157.57</v>
+        <v>1962.6697</v>
       </c>
       <c r="G4" t="n">
-        <v>2626.17</v>
+        <v>12402.3245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.25</v>
+        <v>693</v>
       </c>
       <c r="C5" t="n">
-        <v>310.05</v>
+        <v>1657</v>
       </c>
       <c r="D5" t="n">
-        <v>2158.03</v>
+        <v>8458</v>
       </c>
       <c r="E5" t="n">
-        <v>89.73999999999999</v>
+        <v>723</v>
       </c>
       <c r="F5" t="n">
-        <v>236.37</v>
+        <v>2480</v>
       </c>
       <c r="G5" t="n">
-        <v>2876.44</v>
+        <v>14011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.95</v>
+        <v>677.6747</v>
       </c>
       <c r="C6" t="n">
-        <v>419.8775</v>
+        <v>1495.6472</v>
       </c>
       <c r="D6" t="n">
-        <v>2639.7858</v>
+        <v>9928.7739</v>
       </c>
       <c r="E6" t="n">
-        <v>187.66</v>
+        <v>628.438</v>
       </c>
       <c r="F6" t="n">
-        <v>300.73</v>
+        <v>2694.6556</v>
       </c>
       <c r="G6" t="n">
-        <v>3643.0081</v>
+        <v>15425.1894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.8895</v>
+        <v>622</v>
       </c>
       <c r="C7" t="n">
-        <v>623.62</v>
+        <v>1277</v>
       </c>
       <c r="D7" t="n">
-        <v>3451.4687</v>
+        <v>10855</v>
       </c>
       <c r="E7" t="n">
-        <v>299.3284</v>
+        <v>597</v>
       </c>
       <c r="F7" t="n">
-        <v>278.777</v>
+        <v>2068</v>
       </c>
       <c r="G7" t="n">
-        <v>4766.0846</v>
+        <v>15419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>128.9412</v>
+        <v>494</v>
       </c>
       <c r="C8" t="n">
-        <v>759.4395</v>
+        <v>561</v>
       </c>
       <c r="D8" t="n">
-        <v>4042.4016</v>
+        <v>9318</v>
       </c>
       <c r="E8" t="n">
-        <v>369.3011</v>
+        <v>573</v>
       </c>
       <c r="F8" t="n">
-        <v>386.5135</v>
+        <v>811</v>
       </c>
       <c r="G8" t="n">
-        <v>5686.5969</v>
+        <v>11758</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>132.5531</v>
+        <v>548</v>
       </c>
       <c r="C9" t="n">
-        <v>836.1133</v>
+        <v>572</v>
       </c>
       <c r="D9" t="n">
-        <v>4611.167</v>
+        <v>8929</v>
       </c>
       <c r="E9" t="n">
-        <v>549.3604</v>
+        <v>450</v>
       </c>
       <c r="F9" t="n">
-        <v>585.8504</v>
+        <v>901</v>
       </c>
       <c r="G9" t="n">
-        <v>6715.0442</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>152.6673</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1014.3731</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5336.213</v>
-      </c>
-      <c r="E10" t="n">
-        <v>697.6433</v>
-      </c>
-      <c r="F10" t="n">
-        <v>739.5025000000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7940.3992</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>243.9459</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1240.7203</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6686.3688</v>
-      </c>
-      <c r="E11" t="n">
-        <v>561.1737000000001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1270.9644</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10003.1731</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>335.5082</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1476.9446</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7053.824</v>
-      </c>
-      <c r="E12" t="n">
-        <v>555.5806</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1797.597</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11219.4544</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>365</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1635</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6806</v>
-      </c>
-      <c r="E13" t="n">
-        <v>653</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2009</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11468</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>445.9467</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1783.6513</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7670.1299</v>
-      </c>
-      <c r="E14" t="n">
-        <v>539.9269</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1962.6697</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12402.3245</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>693</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1657</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8458</v>
-      </c>
-      <c r="E15" t="n">
-        <v>723</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2480</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14011</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>677.6747</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1495.6472</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9928.7739</v>
-      </c>
-      <c r="E16" t="n">
-        <v>628.438</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2694.6556</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15425.1894</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>622</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1277</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10855</v>
-      </c>
-      <c r="E17" t="n">
-        <v>597</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2068</v>
-      </c>
-      <c r="G17" t="n">
-        <v>15419</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>494</v>
-      </c>
-      <c r="C18" t="n">
-        <v>561</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9318</v>
-      </c>
-      <c r="E18" t="n">
-        <v>573</v>
-      </c>
-      <c r="F18" t="n">
-        <v>811</v>
-      </c>
-      <c r="G18" t="n">
-        <v>11758</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>548</v>
-      </c>
-      <c r="C19" t="n">
-        <v>572</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8929</v>
-      </c>
-      <c r="E19" t="n">
-        <v>450</v>
-      </c>
-      <c r="F19" t="n">
-        <v>901</v>
-      </c>
-      <c r="G19" t="n">
         <v>11400</v>
       </c>
     </row>
